--- a/Контрольная ведомость Заказ №1.xlsx.xlsx
+++ b/Контрольная ведомость Заказ №1.xlsx.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>E3-55-Al-1000-4-pt3.0</t>
+          <t>E3-55-Al-5000-3-uv</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -499,55 +499,25 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>прямая секция</t>
+          <t>угловая вертикальная секция</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>450х450</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="I2" s="2" t="n">
-        <v>32.40000000000001</v>
+        <v>41.94</v>
       </c>
       <c r="J2" s="2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>E3-55-Al-1250-4-pt3.0</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>1-1-0002</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>прямая секция</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1&amp;C&amp;"Century Gothic"&amp;20 Упаковка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_11 10 2021</oddHeader>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1&amp;C&amp;"Century Gothic"&amp;20 Упаковка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_21 10 2021</oddHeader>
     <oddFooter>&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>

--- a/Контрольная ведомость Заказ №1.xlsx.xlsx
+++ b/Контрольная ведомость Заказ №1.xlsx.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>E3-55-Al-5000-3-uv</t>
+          <t>E3-55-Al-1600-4-zg5</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -499,17 +499,17 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>угловая вертикальная секция</t>
+          <t>z-образная горизонтальная</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>450х450</t>
+          <t>500*500*500</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="I2" s="2" t="n">
-        <v>41.94</v>
+        <v>25.65</v>
       </c>
       <c r="J2" s="2" t="inlineStr"/>
     </row>
@@ -517,7 +517,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1&amp;C&amp;"Century Gothic"&amp;20 Упаковка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_21 10 2021</oddHeader>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1&amp;C&amp;"Century Gothic"&amp;20 Упаковка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_08 11 2021</oddHeader>
     <oddFooter>&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>

--- a/Контрольная ведомость Заказ №1.xlsx.xlsx
+++ b/Контрольная ведомость Заказ №1.xlsx.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>E3-55-Al-1600-4-zg5</t>
+          <t>E3-55-Al-3200-4-pt5</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -499,17 +499,21 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>z-образная горизонтальная</t>
+          <t>прямая секция</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>500*500*500</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr"/>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>000-B</t>
+        </is>
+      </c>
       <c r="I2" s="2" t="n">
-        <v>25.65</v>
+        <v>96</v>
       </c>
       <c r="J2" s="2" t="inlineStr"/>
     </row>
@@ -517,7 +521,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1&amp;C&amp;"Century Gothic"&amp;20 Упаковка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_08 11 2021</oddHeader>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1&amp;C&amp;"Century Gothic"&amp;20 Упаковка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_10 11 2021</oddHeader>
     <oddFooter>&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>

--- a/Контрольная ведомость Заказ №1.xlsx.xlsx
+++ b/Контрольная ведомость Заказ №1.xlsx.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>E3-55-Al-3200-4-pt5</t>
+          <t>E3-55-Al-1000-4-pr5</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>прямая секция</t>
+          <t>прямая распределительная секция с розеткой</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -513,15 +513,419 @@
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>96</v>
+        <v>32.40000000000001</v>
       </c>
       <c r="J2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>E3-55-Al-1000-4-pr5</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>1-1-0002</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>прямая распределительная секция с розеткой</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>000-B</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>32.40000000000001</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>E3-55-Al-1000-4-pr5</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1-1-0003</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>прямая распределительная секция с розеткой</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>000-B</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>32.40000000000001</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>E3-55-Al-1000-4-pr5</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1-1-0004</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>прямая распределительная секция с розеткой</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>000-B</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>32.40000000000001</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>E3-55-Al-1000-4-pr5</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1-1-0005</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>прямая распределительная секция с розеткой</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>000-B</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>32.40000000000001</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>E3-55-Al-1000-4-pr5</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1-1-0006</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>прямая распределительная секция с розеткой</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>000-B</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>32.40000000000001</v>
+      </c>
+      <c r="J7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>E3-55-Al-1000-4-pr5</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1-1-0007</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>прямая распределительная секция с розеткой</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>000-B</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>32.40000000000001</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>E3-55-Al-1000-4-pr5</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1-1-0008</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>прямая распределительная секция с розеткой</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>000-B</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>32.40000000000001</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>E3-55-Al-1000-4-pr5</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1-1-0009</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>прямая распределительная секция с розеткой</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>000-B</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>32.40000000000001</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>E3-55-Al-1000-4-pr5</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1-1-0010</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>прямая распределительная секция с розеткой</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>000-B</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>32.40000000000001</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>E3-55-Al-1000-4-pr5</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1-1-0011</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>прямая распределительная секция с розеткой</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>000-B</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>32.40000000000001</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>E3-55-Al-1000-4-pr5</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1-1-0012</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>прямая распределительная секция с розеткой</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>000-B</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>32.40000000000001</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>E3-55-Al-1000-4-pf</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1-1-0013</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>прямая секция с фланцем</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1&amp;C&amp;"Century Gothic"&amp;20 Упаковка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_10 11 2021</oddHeader>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1&amp;C&amp;"Century Gothic"&amp;20 Упаковка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_15 11 2021</oddHeader>
     <oddFooter>&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
